--- a/ПММ-41-42-ООП.xlsx
+++ b/ПММ-41-42-ООП.xlsx
@@ -106,7 +106,7 @@
     <t>Комментарий</t>
   </si>
   <si>
-    <t>начальник</t>
+    <t>руководитель</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/ПММ-41-42-ООП.xlsx
+++ b/ПММ-41-42-ООП.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="615" windowWidth="10215" windowHeight="8385"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>gui</t>
   </si>
@@ -107,13 +107,19 @@
   </si>
   <si>
     <t>руководитель</t>
+  </si>
+  <si>
+    <t>Есть e-mail</t>
+  </si>
+  <si>
+    <t>да</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,24 +166,22 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -195,7 +199,73 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -208,15 +278,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C22" totalsRowShown="0">
-  <autoFilter ref="A1:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D23" totalsRowCount="1">
+  <autoFilter ref="A1:D23">
+    <filterColumn colId="3"/>
+  </autoFilter>
   <sortState ref="A2:C22">
     <sortCondition ref="B1:B22"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Имя" dataDxfId="1"/>
-    <tableColumn id="2" name="Подсистема" dataDxfId="0"/>
-    <tableColumn id="3" name="Комментарий"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Имя" dataDxfId="5" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="Подсистема" dataDxfId="4" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="Комментарий" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Есть e-mail" totalsRowFunction="custom" totalsRowDxfId="0">
+      <totalsRowFormula>COUNTIF([Есть e-mail], "=да")</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -297,7 +372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -332,7 +406,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -508,20 +581,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -531,8 +604,11 @@
       <c r="C1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -540,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -548,15 +624,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -564,23 +643,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -590,32 +675,44 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -625,8 +722,11 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -634,15 +734,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -650,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -658,23 +761,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -682,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -690,17 +799,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <f>COUNTIF([Есть e-mail], "=да")</f>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ПММ-41-42-ООП.xlsx
+++ b/ПММ-41-42-ООП.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>gui</t>
   </si>
@@ -156,12 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -279,7 +280,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D23" totalsRowCount="1">
-  <autoFilter ref="A1:D23">
+  <autoFilter ref="A1:D22">
     <filterColumn colId="3"/>
   </autoFilter>
   <sortState ref="A2:C22">
@@ -585,7 +586,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -787,8 +788,11 @@
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">

--- a/ПММ-41-42-ООП.xlsx
+++ b/ПММ-41-42-ООП.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="615" windowWidth="10215" windowHeight="8385"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>gui</t>
   </si>
@@ -118,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -200,7 +200,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -224,7 +224,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -248,7 +248,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -266,7 +266,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -280,9 +280,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D23" totalsRowCount="1">
-  <autoFilter ref="A1:D22">
-    <filterColumn colId="3"/>
-  </autoFilter>
+  <autoFilter ref="A1:D22"/>
   <sortState ref="A2:C22">
     <sortCondition ref="B1:B22"/>
   </sortState>
@@ -291,7 +289,7 @@
     <tableColumn id="2" name="Подсистема" dataDxfId="4" totalsRowDxfId="2"/>
     <tableColumn id="3" name="Комментарий" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Есть e-mail" totalsRowFunction="custom" totalsRowDxfId="0">
-      <totalsRowFormula>COUNTIF([Есть e-mail], "=да")</totalsRowFormula>
+      <totalsRowFormula>COUNTIF(Таблица1[Есть e-mail], "=да")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -373,6 +371,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -407,6 +406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -582,20 +582,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -609,7 +609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -625,7 +625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -636,7 +636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -655,7 +655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -666,7 +666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -680,7 +680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -691,7 +691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -702,7 +702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -713,7 +713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -727,7 +727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -735,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -746,7 +746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -762,18 +762,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -784,7 +787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -795,7 +798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -803,24 +806,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <f>COUNTIF([Есть e-mail], "=да")</f>
+        <f>COUNTIF(Таблица1[Есть e-mail], "=да")</f>
         <v>11</v>
       </c>
     </row>

--- a/ПММ-41-42-ООП.xlsx
+++ b/ПММ-41-42-ООП.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>gui</t>
   </si>
@@ -281,7 +281,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D23" totalsRowCount="1">
   <autoFilter ref="A1:D22"/>
-  <sortState ref="A2:C22">
+  <sortState ref="A2:D22">
     <sortCondition ref="B1:B22"/>
   </sortState>
   <tableColumns count="4">
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -619,7 +619,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -627,21 +627,27 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -753,6 +759,9 @@
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -764,24 +773,21 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -789,34 +795,44 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
+      <c r="D19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -824,7 +840,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3">
         <f>COUNTIF(Таблица1[Есть e-mail], "=да")</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ПММ-41-42-ООП.xlsx
+++ b/ПММ-41-42-ООП.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="615" windowWidth="10215" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId2"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>gui</t>
   </si>
@@ -113,13 +116,25 @@
   </si>
   <si>
     <t>да</t>
+  </si>
+  <si>
+    <t>Коллеров Дмитрий</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Количество по полю Подсистема</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,13 +171,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -200,7 +220,16 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -224,13 +253,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -248,25 +271,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -278,18 +283,248 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ryaxovskij.2010" refreshedDate="42074.686893171296" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="22">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Таблица1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Имя" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Подсистема" numFmtId="0">
+      <sharedItems count="6">
+        <s v="graphics"/>
+        <s v="gui"/>
+        <s v="logic"/>
+        <s v="manager"/>
+        <s v="map"/>
+        <s v="player"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Комментарий" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="руководитель"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Есть e-mail" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="22">
+  <r>
+    <s v="Алексеенко Александр Сергеевич"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Полуэктов Константин"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Попков Илья Владимирович"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Потапов Андрей Александрович"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Коллеров Дмитрий"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Анисимова Ксения Николаевна"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Ермилова Елена Олеговна"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Самусенко Вячеслав Игоревич"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Александров Михаил Евгеньевич"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Вайцель Сергей Александрович"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Жигалов Петр Сергеевич"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Сарычев Виктор Геннадьевич"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Трофимова Светлана Алексеевна"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Ряховский Максим Игоревич"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Букреев Денис Дмитриевич"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Кочнев Андрей Владимирович"/>
+    <x v="4"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Солдатов Александр Александрович"/>
+    <x v="4"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Степанова Таисия Андреевна"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Бублей Павел Александрович"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Волк Эдуард Сергеевич"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="да"/>
+  </r>
+  <r>
+    <s v="Дериглазов Роман Александрович"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Кислицын Степан Александрович"/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F1:G8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю Подсистема" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D23" totalsRowCount="1">
-  <autoFilter ref="A1:D22"/>
-  <sortState ref="A2:D22">
-    <sortCondition ref="B1:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D24" totalsRowCount="1">
+  <autoFilter ref="A1:D23"/>
+  <sortState ref="A2:D23">
+    <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Имя" dataDxfId="5" totalsRowDxfId="3"/>
     <tableColumn id="2" name="Подсистема" dataDxfId="4" totalsRowDxfId="2"/>
     <tableColumn id="3" name="Комментарий" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Есть e-mail" totalsRowFunction="custom" totalsRowDxfId="0">
-      <totalsRowFormula>COUNTIF(Таблица1[Есть e-mail], "=да")</totalsRowFormula>
+      <totalsRowFormula>COUNTIF([Есть e-mail], "=да")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -371,7 +606,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -406,7 +640,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -582,20 +815,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -608,24 +843,42 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -638,8 +891,14 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -649,21 +908,30 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -671,35 +939,47 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -708,9 +988,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -719,134 +999,145 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <f>COUNTIF(Таблица1[Есть e-mail], "=да")</f>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <f>COUNTIF([Есть e-mail], "=да")</f>
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ПММ-41-42-ООП.xlsx
+++ b/ПММ-41-42-ООП.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:G8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -819,7 +819,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1091,6 +1091,9 @@
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
@@ -1101,9 +1104,6 @@
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
